--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-15/Sample-15.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-15/Sample-15.xlsx
@@ -920,7 +920,7 @@
   <extLst>
     <ext uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{019710e4-e99a-4546-83ac-5aedf83cbd4a}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{7e6e457f-1511-40e6-bcca-2f75dca63d18}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -937,7 +937,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{42d90e43-1e45-4e8b-b831-f55eff86ec94}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{12815974-b292-499d-9984-434d56f4b813}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -954,7 +954,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{42b97acb-0986-4190-8f03-a17f4c735bfe}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{8cb3490c-071d-464c-88d2-9d64c050980a}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -971,7 +971,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{7c3cde26-86f7-4f10-9e1f-71ceb32134fe}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{cb4d0209-1837-4d70-b774-f2a6adb39bd0}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -988,7 +988,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{a47b66e5-f07c-4a35-83e8-50b3c987bb76}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{04d5e2a3-1190-4315-b8f0-d5aca854b132}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1005,7 +1005,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{0ab685e8-9b57-4476-a0d5-e34b90a1839c}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{a542ecfb-c626-403a-b31b-8caa6ad5ff1d}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1022,7 +1022,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{05de15e7-f40d-40dd-a256-4e5a00d9e241}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{0f252129-0949-455c-9478-b508ff810de0}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1039,7 +1039,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{878fb534-c3e5-418a-9c67-1becf3f99196}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{72181073-3ea6-467b-bbc7-7b9febba38c3}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1056,7 +1056,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b4536e00-8d89-4945-ba6f-e8868adaf0ae}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{5679779d-565b-4ab7-b00d-f7baecaab965}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1073,7 +1073,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{db504a26-4e11-4421-a0a4-b9939bb0b4f0}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{d7a07570-d772-4f4b-a8f3-b0d2adcceba4}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1090,7 +1090,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{404eef0b-1e24-48c4-ab6f-099b500495da}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{47bd995a-2052-42c2-8510-81600f436865}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1107,7 +1107,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{b4ce7b29-18f0-4443-bd95-2e735139cb08}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{5cf46123-afbb-412d-a4e5-ec97e21fb7a7}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1124,7 +1124,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{df07ce36-9b47-4b8e-b85d-92bffc404c37}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{aa14ac4b-a405-48a8-9673-bc15e32ed1ac}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1141,7 +1141,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{e1081fc7-f694-4e68-9a31-9a3ba33c7347}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{039bb882-de18-43b2-ba2c-3b0858c4f55f}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1158,7 +1158,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{346e74f8-2097-4d59-b770-2fd93b2e35d8}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{5a85a809-067e-476d-abad-55113ebc13a9}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1175,7 +1175,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{98bbf1b0-aff6-4299-8ccd-abaa35da8efb}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
+        <x14:sparklineGroup xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:d5p1="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" d5p1:uid="{faae9495-378c-40f1-81b3-4d9bbe251c63}" type="column" displayHidden="0" displayEmptyCellsAs="zero" dateAxis="1" rightToLeft="0" displayXAxis="1" maxAxisType="Individual" minAxisType="Individual" high="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
